--- a/src/test/java/testdata/testdata.xlsx
+++ b/src/test/java/testdata/testdata.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strateo365-my.sharepoint.com/personal/sandeepk_strate_co_za1/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{B08441A6-93D4-47D3-87D4-471306D62EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EA8329B-2DBB-4066-91D8-65A12C52DF21}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{B08441A6-93D4-47D3-87D4-471306D62EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DBACA68-9C5E-41FC-9CE7-F2134860A017}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{E51D157B-C018-4ECB-BC0A-3E63B9A9E79B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E51D157B-C018-4ECB-BC0A-3E63B9A9E79B}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Forgotpassword" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>userid</t>
   </si>
@@ -69,7 +69,10 @@
     <t>sacgusaguas</t>
   </si>
   <si>
-    <t>ugigsss</t>
+    <t>test@123</t>
+  </si>
+  <si>
+    <t>Abc1234@ijklMno</t>
   </si>
 </sst>
 </file>
@@ -458,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F236B98C-4F46-4FBE-ABBE-1FDCE0167B3F}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F3FF3D-04AD-4211-8282-1ED9AC84BB72}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,12 +525,24 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{71115B6A-316C-423E-BEDA-A8CF73535055}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{C9E13C9E-8556-460D-9C78-D6ED2A8E0626}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
